--- a/biology/Médecine/Luciano_Onder/Luciano_Onder.xlsx
+++ b/biology/Médecine/Luciano_Onder/Luciano_Onder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luciano Onder (né le 11 juillet 1943 à Rome, Italie) est un journaliste, animateur de télévision et vulgarisateur scientifique italien. De 1966 à 2014, il contribue à la vulgarisation scientifique sur la Rai, où il a dirigé Medicina 33. Depuis 2014, il travaille sur la chaîne TG5 du groupe Mediaset.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Rome en 1943, il obtient son diplôme en histoire moderne à l'université de Rome « La Sapienza »  en 1965 avec le professeur Renzo De Felice. À partir de 1966, il enseigne à l'université de Rome « La Sapienza » et commence à travailler à la Rai.
 En septembre 2014, il rejoint l'équipe de TG5 et TGcom24, où il s'occupe du programme santé, au sein de l'émission Mattino Cinque.
@@ -544,7 +558,9 @@
           <t>Émissions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Medicina 33 (1966-1975; Rete 2, 1976-1983; Rai 2, 1983-2014)
 TG2 Salute (Rai 2, 1995-2008)
@@ -580,11 +596,13 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Saint-Vincent du journalisme, pour l'émission Medicina 33, 2004
-Prix Ischia international du journalisme (it), 2013[1]
-Docteur honoris causa en médecine et chirurgie de l'université de Parme, 31 mars 2014[2]</t>
+Prix Ischia international du journalisme (it), 2013
+Docteur honoris causa en médecine et chirurgie de l'université de Parme, 31 mars 2014</t>
         </is>
       </c>
     </row>
@@ -612,10 +630,12 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Médaille d'argent du Mérite de la santé publique (it), 2 avril 2003[3]
- Chevalier de l'ordre du Mérite de la République italienne, 2 juin 2004[4]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Médaille d'argent du Mérite de la santé publique (it), 2 avril 2003
+ Chevalier de l'ordre du Mérite de la République italienne, 2 juin 2004</t>
         </is>
       </c>
     </row>
